--- a/Car Sales.xlsx
+++ b/Car Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11065FE3-5451-4BFF-917A-06F4FCBE655D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E5E07-5AC2-470A-A9FE-5C4F882447E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{31B3B4E8-2F37-42A1-905B-FD9DB45C3CC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{31B3B4E8-2F37-42A1-905B-FD9DB45C3CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -290,9 +290,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +432,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7BB1840-2B89-4F8F-84F4-D0EE736E6295}" name="Product_Table" displayName="Product_Table" ref="A1:B7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B7" xr:uid="{7C06AB48-ED5F-4EAB-A851-7AE2C1954BCB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98466ECC-E9D0-46C5-86A3-8814B90D8067}" uniqueName="1" name="Product " queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{28C12DCC-63DD-4CAF-A09C-DE85EE864F8F}" uniqueName="2" name="P_code" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{98466ECC-E9D0-46C5-86A3-8814B90D8067}" uniqueName="1" name="Product " queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{28C12DCC-63DD-4CAF-A09C-DE85EE864F8F}" uniqueName="2" name="P_code" queryTableFieldId="2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,8 +443,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E0168E2-7BE8-4F36-BF4D-AEF473DDCE3B}" name="Employee_Table" displayName="Employee_Table" ref="A1:B6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{55580CBA-2A14-43F0-A392-D106724AA6AA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B67D135-4B70-4164-9E80-7CBB0B7D8E37}" uniqueName="1" name="Sales_Rep" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C3A17391-18D9-4291-81F3-2CFEAFF49C32}" uniqueName="2" name="Emp_Code" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8B67D135-4B70-4164-9E80-7CBB0B7D8E37}" uniqueName="1" name="Sales_Rep" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C3A17391-18D9-4291-81F3-2CFEAFF49C32}" uniqueName="2" name="Emp_Code" queryTableFieldId="2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,11 +454,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F43ED33-0633-4C43-9176-25CDE7BA5E16}" name="Sales_Data" displayName="Sales_Data" ref="A1:H31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{46A546BE-1306-40EE-BC91-E60422E161B3}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CB80196D-613F-4355-9857-F028031F5DBF}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EC2A3186-C361-460B-ABD0-71B9CE6F2BEE}" uniqueName="2" name="Employee ID" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5BF1C32E-1317-45E9-8EB0-6D6ECDC217B0}" uniqueName="3" name="Sales Rep" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{923D8A59-987E-4322-9958-3F0B1B0D3603}" uniqueName="4" name="Product ID" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9B92EFA4-3C2C-4E8C-9BD8-66BA6E44984F}" uniqueName="5" name="Product" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CB80196D-613F-4355-9857-F028031F5DBF}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EC2A3186-C361-460B-ABD0-71B9CE6F2BEE}" uniqueName="2" name="Employee ID" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5BF1C32E-1317-45E9-8EB0-6D6ECDC217B0}" uniqueName="3" name="Sales Rep" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{923D8A59-987E-4322-9958-3F0B1B0D3603}" uniqueName="4" name="Product ID" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{9B92EFA4-3C2C-4E8C-9BD8-66BA6E44984F}" uniqueName="5" name="Product" queryTableFieldId="5" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{5C31CD62-423F-454E-87AC-EBD46529D112}" uniqueName="6" name="Quantity" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{7AF33F43-6351-4410-9D35-54E82B94EA37}" uniqueName="7" name="Price" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{43BEDEF7-2ECA-4BBE-8E2F-898B9691140B}" uniqueName="8" name="Commision" queryTableFieldId="8"/>
@@ -472,10 +471,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C81DC91A-62E6-485C-B293-C926C4415E52}" name="Merged_Sales_Data" displayName="Merged_Sales_Data" ref="A1:G31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G31" xr:uid="{2F3F80B0-6C5A-45AB-A392-F41107B64BAE}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B09CD320-A492-4B92-8804-29254D0E99CA}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E9DAAC21-814D-439B-B938-A43A91361115}" uniqueName="2" name="Product ID" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A5F2E398-82CA-4C0C-83A5-6B3F8E53F17F}" uniqueName="3" name="Product" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{86B573DE-01E4-4A86-A873-B5B5C497D110}" uniqueName="4" name="Sales Rep" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B09CD320-A492-4B92-8804-29254D0E99CA}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E9DAAC21-814D-439B-B938-A43A91361115}" uniqueName="2" name="Product ID" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A5F2E398-82CA-4C0C-83A5-6B3F8E53F17F}" uniqueName="3" name="Product" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{86B573DE-01E4-4A86-A873-B5B5C497D110}" uniqueName="4" name="Sales Rep" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{0193C172-FE1D-4E06-B603-110116CB1651}" uniqueName="5" name="Quantity" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{85FDDD26-CF05-4FEE-B76F-171BF96E2EAA}" uniqueName="6" name="Price" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D4D56D12-D26A-4139-9A88-29AB0857CB83}" uniqueName="7" name="Commision" queryTableFieldId="7"/>
@@ -488,9 +487,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BAD3B48-1ECE-4F8B-9760-D7FEE56C22BC}" name="shop_sales_data" displayName="shop_sales_data" ref="A1:F31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{553B3A49-E88A-4363-897A-54E608E7D8A0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C682F229-CC1C-467A-80D6-97DAB253642D}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{521389FD-CFD4-4D00-B5BE-B6709C6B22BD}" uniqueName="2" name="Product" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{8EBEF4EA-1A38-4A07-8994-8DAEF6C10F46}" uniqueName="3" name="Sales Rep" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{C682F229-CC1C-467A-80D6-97DAB253642D}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{521389FD-CFD4-4D00-B5BE-B6709C6B22BD}" uniqueName="2" name="Product" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8EBEF4EA-1A38-4A07-8994-8DAEF6C10F46}" uniqueName="3" name="Sales Rep" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{822BB6FB-2D3C-4BA6-95B7-B0044530F0E6}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E8BAA627-9441-44D3-8EC9-9FB3C5BF816B}" uniqueName="5" name="Price" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{0703347E-65A3-43DB-B901-DEFAFE291420}" uniqueName="6" name="Commision" queryTableFieldId="6"/>
@@ -500,9 +499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -540,7 +539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -646,7 +645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -800,12 +799,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -813,51 +812,51 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -875,13 +874,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -889,43 +888,43 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -945,19 +944,19 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.0703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.2109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,20 +982,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
@@ -1009,20 +1008,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
@@ -1035,20 +1034,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
@@ -1061,20 +1060,20 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5">
@@ -1087,20 +1086,20 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
@@ -1113,20 +1112,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7">
@@ -1139,20 +1138,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8">
@@ -1165,20 +1164,20 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9">
@@ -1191,20 +1190,20 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
@@ -1217,20 +1216,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11">
@@ -1243,20 +1242,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12">
@@ -1269,20 +1268,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13">
@@ -1295,20 +1294,20 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14">
@@ -1321,20 +1320,20 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15">
@@ -1347,20 +1346,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16">
@@ -1373,20 +1372,20 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17">
@@ -1399,20 +1398,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18">
@@ -1425,20 +1424,20 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19">
@@ -1451,20 +1450,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20">
@@ -1477,20 +1476,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21">
@@ -1503,20 +1502,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22">
@@ -1529,20 +1528,20 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23">
@@ -1555,20 +1554,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24">
@@ -1581,20 +1580,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25">
@@ -1607,20 +1606,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26">
@@ -1633,20 +1632,20 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
       <c r="F27">
@@ -1659,20 +1658,20 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28">
@@ -1685,20 +1684,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29">
@@ -1711,20 +1710,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30">
@@ -1737,20 +1736,20 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31">
@@ -1777,18 +1776,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.0703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.2109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1811,17 +1810,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
@@ -1834,17 +1833,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
@@ -1857,17 +1856,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
@@ -1880,17 +1879,17 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
@@ -1903,17 +1902,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6">
@@ -1926,17 +1925,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
@@ -1949,17 +1948,17 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
@@ -1972,17 +1971,17 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9">
@@ -1995,17 +1994,17 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10">
@@ -2018,17 +2017,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
@@ -2041,17 +2040,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12">
@@ -2064,17 +2063,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13">
@@ -2087,17 +2086,17 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
@@ -2110,17 +2109,17 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15">
@@ -2133,17 +2132,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16">
@@ -2156,17 +2155,17 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
@@ -2179,17 +2178,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18">
@@ -2202,17 +2201,17 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19">
@@ -2225,17 +2224,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20">
@@ -2248,17 +2247,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21">
@@ -2271,17 +2270,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22">
@@ -2294,17 +2293,17 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23">
@@ -2317,17 +2316,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24">
@@ -2340,17 +2339,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25">
@@ -2363,17 +2362,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26">
@@ -2386,17 +2385,17 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
@@ -2409,17 +2408,17 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28">
@@ -2432,17 +2431,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29">
@@ -2455,17 +2454,17 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30">
@@ -2478,17 +2477,17 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31">
@@ -2515,17 +2514,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.78515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.0703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.2109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,14 +2544,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -2565,14 +2564,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
@@ -2585,14 +2584,14 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -2605,14 +2604,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -2625,14 +2624,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
@@ -2645,14 +2644,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
@@ -2665,14 +2664,14 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
@@ -2685,14 +2684,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9">
@@ -2705,14 +2704,14 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10">
@@ -2725,14 +2724,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11">
@@ -2745,14 +2744,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12">
@@ -2765,14 +2764,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13">
@@ -2785,14 +2784,14 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14">
@@ -2805,14 +2804,14 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15">
@@ -2825,14 +2824,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16">
@@ -2845,14 +2844,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17">
@@ -2865,14 +2864,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18">
@@ -2885,14 +2884,14 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19">
@@ -2905,14 +2904,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20">
@@ -2925,14 +2924,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
@@ -2945,14 +2944,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22">
@@ -2965,14 +2964,14 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23">
@@ -2985,14 +2984,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24">
@@ -3005,14 +3004,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25">
@@ -3025,14 +3024,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26">
@@ -3045,14 +3044,14 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27">
@@ -3065,14 +3064,14 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28">
@@ -3085,14 +3084,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29">
@@ -3105,14 +3104,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30">
@@ -3125,14 +3124,14 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31">
@@ -3159,7 +3158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
